--- a/Assets/GameMain/DataTables/xlsx/UIForm.xlsx
+++ b/Assets/GameMain/DataTables/xlsx/UIForm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8415" windowHeight="12990"/>
+    <workbookView windowWidth="28785" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>TaskListForm</t>
+  </si>
+  <si>
+    <t>图片弹窗</t>
+  </si>
+  <si>
+    <t>PicturePopUp</t>
   </si>
 </sst>
 </file>
@@ -122,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,14 +143,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +187,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,49 +224,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,19 +239,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,6 +270,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -252,29 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +486,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,32 +549,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,30 +578,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -588,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1170,7 +1176,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1190,7 +1196,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6">
-        <v>101</v>
+        <v>901</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7">
-        <v>102</v>
+        <v>902</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1230,7 +1236,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
-        <v>103</v>
+        <v>903</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>104</v>
+        <v>904</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1270,7 +1276,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
-        <v>105</v>
+        <v>905</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
-        <v>106</v>
+        <v>906</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1310,7 +1316,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
-        <v>107</v>
+        <v>907</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1326,6 +1332,26 @@
       </c>
       <c r="G12" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>908</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
